--- a/output_additional_column/1995.xlsx
+++ b/output_additional_column/1995.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44703.76710594414</v>
+        <v>44703.79032530727</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44703.76710594414</v>
+        <v>44703.79032530727</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44703.76710594414</v>
+        <v>44703.79032530727</v>
       </c>
     </row>
     <row r="5">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44703.76710594414</v>
+        <v>44703.79032530727</v>
       </c>
     </row>
     <row r="6">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44703.76710594414</v>
+        <v>44703.79032530727</v>
       </c>
     </row>
   </sheetData>
